--- a/data/종합.xlsx
+++ b/data/종합.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Public_Park_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897BE8AC-7C47-4DC0-A9EC-AF560443C6CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D89774F-F229-49FB-B043-9F480BE98F31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{6483CEA1-F0E9-49FD-828D-87C25B0AEB7B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>WiFi 접속자수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유동인구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자동차등록수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,10 +128,6 @@
   </si>
   <si>
     <t>면수</t>
-  </si>
-  <si>
-    <t>교통량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>버스탑승자수(1월)</t>
@@ -507,20 +499,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9055AC24-D27A-4F1A-A172-81CF7CF1B29B}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -529,33 +521,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
       </c>
       <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1018933</v>
@@ -575,16 +561,16 @@
       <c r="G2">
         <v>370</v>
       </c>
-      <c r="J2">
+      <c r="H2">
         <v>49873</v>
       </c>
-      <c r="K2">
+      <c r="I2">
         <v>59935</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>565136</v>
@@ -604,16 +590,16 @@
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="H3">
         <v>74276</v>
       </c>
-      <c r="K3">
+      <c r="I3">
         <v>86702</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4834174</v>
@@ -633,16 +619,16 @@
       <c r="G4">
         <v>1587</v>
       </c>
-      <c r="J4">
+      <c r="H4">
         <v>294504</v>
       </c>
-      <c r="K4">
+      <c r="I4">
         <v>347773</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>141161</v>
@@ -662,16 +648,16 @@
       <c r="G5">
         <v>897</v>
       </c>
-      <c r="J5">
+      <c r="H5">
         <v>11652</v>
       </c>
-      <c r="K5">
+      <c r="I5">
         <v>13320</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>393438</v>
@@ -691,16 +677,16 @@
       <c r="G6">
         <v>327</v>
       </c>
-      <c r="J6">
+      <c r="H6">
         <v>39894</v>
       </c>
-      <c r="K6">
+      <c r="I6">
         <v>46926</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>919731</v>
@@ -720,16 +706,16 @@
       <c r="G7">
         <v>151</v>
       </c>
-      <c r="J7">
+      <c r="H7">
         <v>68603</v>
       </c>
-      <c r="K7">
+      <c r="I7">
         <v>74856</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1223869</v>
@@ -749,16 +735,16 @@
       <c r="G8">
         <v>618</v>
       </c>
-      <c r="J8">
+      <c r="H8">
         <v>58766</v>
       </c>
-      <c r="K8">
+      <c r="I8">
         <v>56328</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>638591</v>
@@ -778,16 +764,16 @@
       <c r="G9">
         <v>656</v>
       </c>
-      <c r="J9">
+      <c r="H9">
         <v>64546</v>
       </c>
-      <c r="K9">
+      <c r="I9">
         <v>73562</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1552059</v>
@@ -807,16 +793,16 @@
       <c r="G10">
         <v>821</v>
       </c>
-      <c r="J10">
+      <c r="H10">
         <v>257359</v>
       </c>
-      <c r="K10">
+      <c r="I10">
         <v>287963</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>939748</v>
@@ -836,16 +822,16 @@
       <c r="G11">
         <v>36</v>
       </c>
-      <c r="J11">
+      <c r="H11">
         <v>154435</v>
       </c>
-      <c r="K11">
+      <c r="I11">
         <v>182420</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>3126565</v>
@@ -865,16 +851,16 @@
       <c r="G12">
         <v>832</v>
       </c>
-      <c r="J12">
+      <c r="H12">
         <v>323164</v>
       </c>
-      <c r="K12">
+      <c r="I12">
         <v>374299</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>300518</v>
@@ -894,16 +880,16 @@
       <c r="G13">
         <v>971</v>
       </c>
-      <c r="J13">
+      <c r="H13">
         <v>176387</v>
       </c>
-      <c r="K13">
+      <c r="I13">
         <v>199364</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>994026</v>
@@ -923,16 +909,16 @@
       <c r="G14">
         <v>514</v>
       </c>
-      <c r="J14">
+      <c r="H14">
         <v>60016</v>
       </c>
-      <c r="K14">
+      <c r="I14">
         <v>65909</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>812415</v>
@@ -952,16 +938,16 @@
       <c r="G15">
         <v>55</v>
       </c>
-      <c r="J15">
+      <c r="H15">
         <v>61064</v>
       </c>
-      <c r="K15">
+      <c r="I15">
         <v>71839</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1658664</v>
@@ -981,16 +967,16 @@
       <c r="G16">
         <v>773</v>
       </c>
-      <c r="J16">
+      <c r="H16">
         <v>239049</v>
       </c>
-      <c r="K16">
+      <c r="I16">
         <v>261995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>156445</v>
@@ -1010,16 +996,16 @@
       <c r="G17">
         <v>38</v>
       </c>
-      <c r="J17">
+      <c r="H17">
         <v>2147</v>
       </c>
-      <c r="K17">
+      <c r="I17">
         <v>3583</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1706470</v>
@@ -1039,16 +1025,16 @@
       <c r="G18">
         <v>592</v>
       </c>
-      <c r="J18">
+      <c r="H18">
         <v>174604</v>
       </c>
-      <c r="K18">
+      <c r="I18">
         <v>165156</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>3076786</v>
@@ -1068,16 +1054,16 @@
       <c r="G19">
         <v>1700</v>
       </c>
-      <c r="J19">
+      <c r="H19">
         <v>368820</v>
       </c>
-      <c r="K19">
+      <c r="I19">
         <v>406444</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>114543</v>
@@ -1097,16 +1083,16 @@
       <c r="G20">
         <v>804</v>
       </c>
-      <c r="J20">
+      <c r="H20">
         <v>19807</v>
       </c>
-      <c r="K20">
+      <c r="I20">
         <v>24356</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1054688</v>
@@ -1126,16 +1112,16 @@
       <c r="G21">
         <v>486</v>
       </c>
-      <c r="J21">
+      <c r="H21">
         <v>45907</v>
       </c>
-      <c r="K21">
+      <c r="I21">
         <v>74985</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>2563285</v>
@@ -1155,16 +1141,16 @@
       <c r="G22">
         <v>690</v>
       </c>
-      <c r="J22">
+      <c r="H22">
         <v>146960</v>
       </c>
-      <c r="K22">
+      <c r="I22">
         <v>164805</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1677427</v>
@@ -1184,16 +1170,16 @@
       <c r="G23">
         <v>175</v>
       </c>
-      <c r="J23">
+      <c r="H23">
         <v>121781</v>
       </c>
-      <c r="K23">
+      <c r="I23">
         <v>149827</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1213,16 +1199,16 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="H24">
         <v>4353</v>
       </c>
-      <c r="K24">
+      <c r="I24">
         <v>4827</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>296704</v>
@@ -1242,16 +1228,16 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="H25">
         <v>21427</v>
       </c>
-      <c r="K25">
+      <c r="I25">
         <v>24410</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>450801</v>
@@ -1271,16 +1257,16 @@
       <c r="G26">
         <v>53</v>
       </c>
-      <c r="J26">
+      <c r="H26">
         <v>72144</v>
       </c>
-      <c r="K26">
+      <c r="I26">
         <v>88902</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>1346005</v>
@@ -1300,10 +1286,10 @@
       <c r="G27">
         <v>324</v>
       </c>
-      <c r="J27">
+      <c r="H27">
         <v>142901</v>
       </c>
-      <c r="K27">
+      <c r="I27">
         <v>156592</v>
       </c>
     </row>
